--- a/artfynd/A 433-2026 artfynd.xlsx
+++ b/artfynd/A 433-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,6 +900,115 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>131110416</v>
+      </c>
+      <c r="B4" t="n">
+        <v>92246</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>5420</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Grovticka</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Phaeolus schweinitzii</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Fr.) Pat.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>A 433, Rössle, Sm</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>593262</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6402184</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Törnsfall</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 433-2026 artfynd.xlsx
+++ b/artfynd/A 433-2026 artfynd.xlsx
@@ -905,7 +905,7 @@
         <v>131110416</v>
       </c>
       <c r="B4" t="n">
-        <v>92246</v>
+        <v>92247</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/artfynd/A 433-2026 artfynd.xlsx
+++ b/artfynd/A 433-2026 artfynd.xlsx
@@ -905,7 +905,7 @@
         <v>131110416</v>
       </c>
       <c r="B4" t="n">
-        <v>92247</v>
+        <v>92248</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/artfynd/A 433-2026 artfynd.xlsx
+++ b/artfynd/A 433-2026 artfynd.xlsx
@@ -905,7 +905,7 @@
         <v>131110416</v>
       </c>
       <c r="B4" t="n">
-        <v>92248</v>
+        <v>92251</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
